--- a/places_to_call.xlsx
+++ b/places_to_call.xlsx
@@ -1497,7 +1497,11 @@
           <t>5475 Rue des Jockeys, Montréal, QC H4P 2M1, Canada</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-21 18:51: Hello | 2025-03-21 18:51: HELLOOOO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/places_to_call.xlsx
+++ b/places_to_call.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,26 @@
           <t>LastCallbackDate</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OpeningHours</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tocall</t>
+          <t>dont_call</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +518,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Call at 8pm</t>
+          <t>no longer exists</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,6 +528,22 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -517,7 +553,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tocall</t>
+          <t>callback</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,7 +577,23 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,7 +603,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tocall</t>
+          <t>called</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,10 +616,34 @@
           <t>119 Sydney St, Cornwall, ON K6J 3H1, Canada</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +670,18 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,6 +708,18 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -646,6 +746,18 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -672,6 +784,18 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -698,6 +822,18 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -724,6 +860,18 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -750,6 +898,6852 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Cornwall</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Smokin' 116 Bistro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(613) 902-5001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>116 Pinnacle St, Belleville, ON K8N 3A4, Canada</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>weird mall type thing</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(613) 902-5001</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Royal Haveli (Flavours of India)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(613) 962-0043</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>366 N Front St #22, Belleville, ON K8P 5N8, Canada</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>left number for owner to callback on 2025-05-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(613) 962-0043</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The Pier Patio Bar and Grill</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(613) 968-9494</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1 S Front St, Belleville, ON K8N 5K7, Canada</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>was closed</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(613) 968-9494</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rosemary &amp; Thyme</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(613) 962-9358</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>417 Bridge St E, Belleville, ON K8N 1P7, Canada</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>was closed</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(613) 962-9358</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Toro Sushi Restaurant</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(613) 967-6478</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>308 Dundas St E, Belleville, ON K8N 1E6, Canada</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>not interested : 2025-05-10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(613) 967-6478</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MAMA’S KITCHEN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(613) 779-7200</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>191 Dundas St E, Belleville, ON K8N 1E2, Canada</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>call before 1:30pm</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(613) 779-7200</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Harbour Cafe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>(613) 966-8800</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33 Pinnacle St, Belleville, ON K8N 3A1, Canada</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Heather's Place</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(613) 771-1937</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6835 ON-62, Belleville, ON K8N 0L9, Canada</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OMG What a Hotdog!</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>(613) 779-7161</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>494 Dundas St E, Belleville, ON K8N 1E8, Canada</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Belleville</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chef Basel Cuisine</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(705) 748-2433</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2641 Television Rd, Peterborough, ON K9L 0E1, Canada</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Monday 3pm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(705) 748-2433</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Saturday: 7:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Sunday: 7:00\u202fAM\u2009\u2013\u20098:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fresh Dreams</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(705) 559-7731</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>373 Queen St, Peterborough, ON K9H 3J7, Canada</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no answer
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(705) 559-7731</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 5:30\u2009\u2013\u20099:00\u202fPM", "Wednesday: 5:30\u2009\u2013\u20099:00\u202fPM", "Thursday: 5:30\u2009\u2013\u20099:00\u202fPM", "Friday: 5:30\u2009\u2013\u20099:00\u202fPM", "Saturday: 5:30\u2009\u2013\u200910:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Love You, Mean It - Bar &amp; Restaurant</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(705) 742-6181</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>135 Hunter St W, Peterborough, ON K9H 2K7, Canada</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: Closed", "Wednesday: 4:00\u2009\u2013\u200911:00\u202fPM", "Thursday: 4:00\u2009\u2013\u200911:00\u202fPM", "Friday: 4:00\u202fPM\u2009\u2013\u200912:00\u202fAM", "Saturday: 4:00\u202fPM\u2009\u2013\u200912:00\u202fAM", "Sunday: 10:00\u202fAM\u2009\u2013\u20092:00\u202fPM, 4:00\u2009\u2013\u200910:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Copper Spoons</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(705) 760-0541</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>540 Romaine St, Peterborough, ON K9J 2E2, Canada</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>THE RINK TAP AND GRILL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(705) 874-2935</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>597 Monaghan Rd, Peterborough, ON K9J 5J1, Canada</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jack's Family Restaurant ~ Peterborough</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(705) 740-9776</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>91 George St N, Peterborough, ON K9J 3G3, Canada</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20097:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Porch &amp; Pint Pub</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(705) 750-0598</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>172 Lansdowne St E, Peterborough, ON K9J 7N9, Canada</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interested  
+Said will callback Wednesday
+Quote 500$ -------- callback Thursday
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(705) 750-0598</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>["Monday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Tuesday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Saturday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Sunday: 12:00\u2009\u2013\u20097:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Erben</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(705) 874-8379</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>379 George St N, Peterborough, ON K9H 3R2, Canada</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Turnbull Cafe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(705) 775-2233</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>170 Simcoe St, Peterborough, ON K9H 2H7, Canada</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seb call back
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(705) 775-2233</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The Speak Easy Cafe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(705) 749-9589</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>362 George St N, Peterborough, ON K9H 2H6, Canada</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fifties Good Time Cafe</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>(705) 741-3812</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>590 Monaghan Rd, Peterborough, ON K9J 5H9, Canada</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CC’s Café</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(705) 775-7005</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>833 Chemong Rd, Peterborough, ON K9H 5Z5, Canada</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cambodian Village Restaurant</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(613) 536-0426</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>347 King St E, Kingston, ON K7L 3B5, Canada</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>call back june</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(613) 536-0426</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Miss Bāo Restaurant + Cocktail Bar</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(613) 545-0123</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>286 Princess St, Kingston, ON K7L 1B5, Canada</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Morrison's Restaurant</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(613) 542-9483</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>318 King St E, Kingston, ON K7L 2Z3, Canada</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>no answer</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(613) 542-9483</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kingston Coffee House</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(613) 531-7994</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>322 King St E, Kingston, ON K7L 3B4, Canada</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>no answer</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chit Chat Café</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(613) 777-8565</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>172 Ontario St, Kingston, ON K7L 2Y8, Canada</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>no answer</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Coffee Way Donuts</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>(613) 546-9106</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>472 Division St, Kingston, ON K7K 4B1, Canada</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>manager took down phone number</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Coffee Trends and Mile and a Quarter Ice Cream</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>(613) 634-7377</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>772 Blackburn Mews, Kingston, ON K7P 2N7, Canada</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Said no but i didnt persuade them</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(613) 634-7377</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Philo and Kero Cafe</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(613) 544-2297</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>791 Princess St Unit 104, Kingston, ON K7L 1E9, Canada</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Bad english have seb callback</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(613) 544-2297</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CommUnity Café</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100 Days Rd, Kingston, ON K7M 6T5, Canada</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Delightfully Different Tea Room</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>(613) 766-5966</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>197 Wellington St, Kingston, ON K7K 2Y6, Canada</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Call Denise Sunday 2pm</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>M &amp; J Cakes &amp; Cookies cafee</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>(647) 938-8654</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>252 Ontario St, Kingston, ON K7L 5P7, Canada</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>no answer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Big Bites Kingston</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>(613) 766-0114</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>900 Montreal St, Kingston, ON K7K 3J9, Canada</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>guy didnt really understand so Seb call back.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hoagie House</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>(613) 542-5971</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>384 Division St, Kingston, ON K7K 4A5, Canada</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Monday 11am 
+Old owners not very receptive to tech.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Seoul 2 Soul</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>(613) 507-6777</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>282 Princess St, Kingston, ON K7L 1B5, Canada</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chez Lucien</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>(613) 241-3533</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>137 Murray St, Ottawa, ON K1N 5M7, Canada</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Call for owner around 10am</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>The Koven</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>(613) 422-5666</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>93 Murray St, Ottawa, ON K1N 5M6, Canada</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seb call and ask to send examples via email
+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ceasar Rosa's U-Rock Cafe</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>986 Wellington St. W, Ottawa, ON K1Y 2X8, Canada</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Le Moulin de Provence KD METCALFE &amp; QUEEN</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>(613) 695-2253</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>30 Metcalfe St, Ottawa, ON K1P 5L4, Canada</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">callback before 2pm
+</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Café des Tours</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>385 Sussex Dr, Ottawa, ON K1N 1J9, Canada</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hugo Café</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>(613) 230-0084</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>399 Bank St, Ottawa, ON K2P 1Y3, Canada</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>send example to socialtieottawa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Café Qui Pense</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>204 Main St, Ottawa, ON K1S 0G4, Canada</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DeliKat Café</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>(613) 235-7232</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>277 Sparks St., Ottawa, ON K1R 7X9, Canada</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Babylonia Cafe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>(613) 728-1449</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1319 Shillington Ave, Ottawa, ON K1Z 8A3, Canada</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Call 8pm may 14th</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Casa di Moni Café and Gelato</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>(613) 789-7172</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>51 York St, Ottawa, ON K1N 9B7, Canada</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mellos Coffee Shop</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>(613) 224-6411</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1516 Merivale Rd, Nepean, ON K2E 5P3, Canada</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Nepean</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Wilf &amp; Ada's (No reservations)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>(613) 231-7959</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>510 Bank St, Ottawa, ON K2P 1C1, Canada</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Cozy's Express</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>(613) 746-2930</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1572 Michael St, Ottawa, ON K1B 3T7, Canada</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>email: chasitytharp@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Meadows Diner</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>(613) 567-5214</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>455 Preston St, Ottawa, ON K1S 3L2, Canada</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">send example to meadowslunch@gmail.com
+</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Bramasole Diner</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>(613) 234-0502</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>428 Bank St, Ottawa, ON K2P 1Y8, Canada</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Ottawa</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Dhaba NH1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>(905) 576-2428</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8 Midtown Dr Unit #4, Oshawa, ON L1J 3Z7, Canada</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Souperlicious on Taunton Rd. (Oshawa)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>(905) 576-3403</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>250 Taunton Rd E Unit 2, Oshawa, ON L1G 7T1, Canada</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>send link to : 289-923-1617
+spoke to Brent on 05-13
+callback 05-18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Bridgette's Family Restaurant</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>(905) 432-5434</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>45 Bloor St E, Oshawa, ON L1H 3L9, Canada</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Scaddabush Italian Kitchen &amp; Bar Whitby</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>(289) 989-2880</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>75 Consumers Dr unit d3b, Whitby, ON L1N 9S2, Canada</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Whitby</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>King's Breakfast Place</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>(905) 404-2840</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15 King St W, Oshawa, ON L1H 1A1, Canada</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kareza Cafe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>(905) 576-4766</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>37 Debwewin Miikan, Oshawa, ON L1H 1M9, Canada</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Olive Branch Cafe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>(905) 571-5099</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>452 Taunton Rd W, Oshawa, ON L1L 0W1, Canada</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Uncle Fluffy</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>(905) 728-1188</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>17 King St W, Oshawa, ON L1H 1A1, Canada</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Franchise</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Forum Drive-In Restaurant</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>(905) 723-0682</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>580 Ritson Rd S, Oshawa, ON L1H 5K8, Canada</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Diamond's Grill</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>(289) 222-7455</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>366 Wilson Rd S, Oshawa, ON L1H 6C7, Canada</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ZAPS Polish Street Food</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>(289) 675-4041</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>70 King St E, Oshawa, ON L1H 1B5, Canada</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Some weird thing about how landlord controls website and they not allowed to have one.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chasers Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(905) 240-1988</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1300 King St E, Oshawa, ON L1H 1J2, Canada</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>call at 9pm</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michael Kelly's</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>(905) 655-5525</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>93 Winchester Rd E, Whitby, ON L1M 1B4, Canada</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Whitby</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tastoria Kitchen</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>(905) 925-2999</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>70 King St E, Oshawa, ON L1H 0A2, Canada</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Desserto Oshawa</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>(905) 576-3707</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1051 Simcoe St N, Oshawa, ON L1G 4W3, Canada</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Oshawa</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Caribbean Jerk Kitchen And Grill</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>(705) 478-7330</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>392 Algonquin Ave, North Bay, ON P1B 4W3, Canada</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seb Call next week
+</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>["Monday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Tuesday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Saturday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Sunday: 12:00\u2009\u2013\u20097:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Lou Dawg's Southern BBQ - North Bay</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>(705) 478-5838</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>167 Main St W, North Bay, ON P1B 2T6, Canada</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>email: Loudawg@northbay.com Ryan</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u200912:00\u202fAM", "Thursday: 12:00\u2009\u2013\u200911:00\u202fAM, 11:30\u202fAM\u2009\u2013\u200912:00\u202fAM", "Friday: 11:30\u202fAM\u2009\u2013\u200912:00\u202fAM", "Saturday: 11:30\u202fAM\u2009\u2013\u20098:45\u202fPM, 10:00\u202fPM\u2009\u2013\u200912:00\u202fAM", "Sunday: 12:00\u2009\u2013\u20092:00\u202fAM, 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The Portage</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>(705) 474-8800</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>170 Peninsula Rd, North Bay, ON P1B 8G4, Canada</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Said no interested for no reason but i didnt do sales too well so someone callback.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 12:00\u2009\u2013\u20099:00\u202fPM", "Wednesday: 12:00\u2009\u2013\u20099:00\u202fPM", "Thursday: 12:00\u2009\u2013\u20099:00\u202fPM", "Friday: 12:00\u2009\u2013\u200910:00\u202fPM", "Saturday: 12:00\u2009\u2013\u20099:00\u202fPM", "Sunday: 12:00\u2009\u2013\u20098:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The Crown and Beaver Pub</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>(705) 478-5551</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>786 Lakeshore Dr, North Bay, ON P1A 2G7, Canada</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>making website with BentoBox</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Saturday: 11:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Sunday: 11:30\u202fAM\u2009\u2013\u20098:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Fifty's Diner</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>(705) 472-4663</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2555 Trout Lake Rd, North Bay, ON P1B 9N6, Canada</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>want something very simple</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Saturday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>La Casa de Maria</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>(705) 303-7830</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>246 1st Ave W, North Bay, ON P1B 3C1, Canada</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Already work with alot of plateforms and dont want to deal with managing a new one.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Saturday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Sunday: 3:00\u2009\u2013\u20099:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Terry's Place</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>(705) 475-1111</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>524 Lakeshore Dr, North Bay, ON P1A 3L1, Canada</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>7am - 9am</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Saturday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Sunday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Manshou Restaurant</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>(705) 476-4174</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>127 Lakeshore Dr, North Bay, ON P1A 2A9, Canada</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Saturday: 3:30\u2009\u2013\u20099:00\u202fPM", "Sunday: 3:30\u2009\u2013\u20099:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Field of Dreams</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>(705) 492-5227</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>581 Lakeshore Dr Suite 5, North Bay, ON P1A 2E7, Canada</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:30\u202fAM\u2009\u2013\u20097:30\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u20097:30\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u20097:30\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u20097:30\u202fPM", "Saturday: 11:30\u202fAM\u2009\u2013\u20097:30\u202fPM", "Sunday: 11:30\u202fAM\u2009\u2013\u20097:30\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>The Culture Club</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>158 Main St W, North Bay, ON P1B 2T5, Canada</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 10:00\u202fAM\u2009\u2013\u20095:30\u202fPM", "Thursday: 10:00\u202fAM\u2009\u2013\u20095:30\u202fPM", "Friday: 10:00\u202fAM\u2009\u2013\u20095:30\u202fPM", "Saturday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Dinner is Served by Dianne's Catering</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>(705) 223-3333</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>540 Lakeshore Dr, North Bay, ON P1A 2E6, Canada</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>["Monday: 10:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Tuesday: 10:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Wednesday: 10:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Thursday: 10:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Friday: 10:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Saturday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Sunday: 10:00\u202fAM\u2009\u2013\u20094:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>(705) 476-7777</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>631 Lakeshore Dr, North Bay, ON P1A 2E7, Canada</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">not an actual restaurant but rather apart of churchills smokehouse </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>["Monday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Tuesday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Saturday: 4:00\u2009\u2013\u200910:00\u202fPM", "Sunday: 4:00\u2009\u2013\u200910:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>The Fork</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>(249) 358-3675</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2504 ON-94, Callander, ON P0H 1W0, Canada</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Callander</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>["Monday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM", "Tuesday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM", "Saturday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM", "Sunday: 11:30\u202fAM\u2009\u2013\u20097:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mr. Pancho</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>(705) 472-6101</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>221 Algonquin Ave, North Bay, ON P1B 4V8, Canada</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>call at 11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>North Bay</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Saturday: 11:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Café Victoria's</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>(514) 327-7877</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8600 Boul Langelier, Montreal, QC H1P 2Y7, Canada</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>(514) 327-7877</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Saint-Léonard</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>["Monday: 5:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Tuesday: 5:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Wednesday: 5:30\u202fAM\u2009\u2013\u200911:00\u202fPM", "Thursday: 5:30\u202fAM\u2009\u2013\u200911:30\u202fPM", "Friday: 5:30\u202fAM\u2009\u2013\u20091:00\u202fAM", "Saturday: 6:00\u202fAM\u2009\u2013\u200912:00\u202fAM", "Sunday: 6:00\u202fAM\u2009\u2013\u200911:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Farmhouse Victoria</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>(250) 555-5555</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10 Bastion Square, Victoria, BC V8W 1H9, Canada</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>phone numbers dead</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Aegir Room</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>(250) 410-2085</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>500 Oswego St, Victoria, BC V8V 5C1, Canada</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Jason Manager</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>["Monday: 7:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Tuesday: 7:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Wednesday: 7:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Thursday: 7:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Friday: 7:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Saturday: 7:30\u202fAM\u2009\u2013\u200910:00\u202fPM", "Sunday: 7:30\u202fAM\u2009\u2013\u200910:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Le Riverside Café</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>(450) 890-4414</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>414 Av. Victoria, Saint-Lambert, QC J4P 2H9, Canada</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>call around 11 am</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 7:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Wednesday: 7:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Thursday: 7:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Friday: 7:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Saturday: 7:30\u202fAM\u2009\u2013\u20095:00\u202fPM", "Sunday: 7:30\u202fAM\u2009\u2013\u20095:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Victoria Café</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>(450) 507-1596</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>#100, 45 Rue Principale, Châteauguay, QC J6K 1E9, Canada</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Châteauguay</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>["Monday: 7:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Tuesday: 7:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Wednesday: 7:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Thursday: 7:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Friday: 7:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Saturday: 9:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Sunday: 9:00\u202fAM\u2009\u2013\u20094:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>JOIE French Café</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>(250) 590-5520</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1610 Cook St, Victoria, BC V8T 1A7, Canada</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>callback may 27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>["Monday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: Closed", "Wednesday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Sunday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Picnic Too</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>(250) 590-1201</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1019 Fort St, Victoria, BC V8V 3K4, Canada</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>email them about website.
+info@picniccoffee.com
+Natalia</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sour Pickle Cafe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>(250) 384-9390</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1623 Store St, Victoria, BC V8W 3K3, Canada</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: Closed", "Thursday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Fresko One World</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>(250) 385-3131</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>642 Yates St, Victoria, BC V8W 1L3, Canada</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NotInterested</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>["Monday: 10:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Tuesday: 10:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Wednesday: 10:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Thursday: 10:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Friday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fAM", "Saturday: 10:00\u202fAM\u2009\u2013\u20093:00\u202fAM", "Sunday: 9:00\u202fAM\u2009\u2013\u200912:30\u202fAM"]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Red Kettle Restaurant</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>(250) 388-3966</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2630 Bridge St, Victoria, BC V8T 1T6, Canada</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SEOUL To Go</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>(250) 590-2300</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1099 McKenzie Ave #2, Victoria, BC V8P 2L5, Canada</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Closing Down</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>["Monday: 11:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Tuesday: 11:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Wednesday: 11:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u20096:00\u202fPM", "Saturday: 12:30\u2009\u2013\u20096:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>The Savoury Café</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>(250) 598-3410</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1841 Oak Bay Ave #106, Victoria, BC V8R 1C4, Canada</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Loft and Ladder Coffee House</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>(250) 361-3996</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>932 Johnson St #101, Victoria, BC V8V 3N4, Canada</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>call around 2pm talk to Brett, spoke to wife today, heard they are having trouble with website right now</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>New Owly Cafe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>(778) 265-6959</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1150 Douglas St #200a, Victoria, BC V8W 3M9, Canada</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>multiple calls but no answer</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>["Monday: 9:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Tuesday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Wednesday: 9:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Friday: 9:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 10:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Sunday: 11:00\u202fAM\u2009\u2013\u20094:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Selkirk Cafe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>(250) 383-9339</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2960 Jutland Rd, Victoria, BC V8T 5K7, Canada</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>["Monday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Tuesday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Urban Cup Cafe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>(250) 477-7741</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3690 Shelbourne St, Victoria, BC V8P 4H2, Canada</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>left number for manager to call back.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jackson Brothers Coffeehouse</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>(250) 590-1422</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>784 Humboldt St, Victoria, BC V8W 4A2, Canada</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>gbjcafe@gmail.com
+Send email
+Spoke to Collin Jackson
+Said that life just got away</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Sunday: 7:30\u202fAM\u2009\u2013\u20094:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Castello Coffee</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>(250) 388-6636</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1802 Douglas St, Victoria, BC V8T 4K6, Canada</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>["Monday: 6:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Tuesday: 6:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 6:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 6:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 6:30\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 7:30\u202fAM\u2009\u2013\u200912:00\u202fPM", "Sunday: 7:30\u202fAM\u2009\u2013\u200912:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Township Coffee</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>(778) 265-3253</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4343 Tyndall Ave, Victoria, BC V8N 5R9, Canada</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>said might look for a website later so call back in august</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 9:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 9:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 9:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 9:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: 9:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Sunday: 9:00\u202fAM\u2009\u2013\u20093:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mom's Kitchen</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>(778) 265-5151</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>69-560 Johnson St, Victoria, BC V8W 3C6, Canada</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: Closed", "Wednesday: 11:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Saturday: 11:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Sunday: 11:00\u202fAM\u2009\u2013\u20095:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Lasalle Caribbean</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>(514) 439-4818</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>408 Av. Lafleur, LaSalle, QC H8R 3H5, Canada</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>LaSalle</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>["Monday: 11:30\u202fAM\u2009\u2013\u20098:00\u202fPM", "Tuesday: Closed", "Wednesday: 11:30\u202fAM\u2009\u2013\u20098:00\u202fPM", "Thursday: 11:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Friday: 11:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Saturday: 10:30\u202fAM\u2009\u2013\u20099:00\u202fPM", "Sunday: 1:00\u2009\u2013\u20098:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Always Hungry</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>208 Rue Migneron, Saint-Laurent, QC H4T 1Y7, Canada</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: Closed", "Wednesday: 4:00\u202fPM\u2009\u2013\u200912:00\u202fAM", "Thursday: 4:00\u202fPM\u2009\u2013\u20091:00\u202fAM", "Friday: 4:00\u202fPM\u2009\u2013\u20091:00\u202fAM", "Saturday: 4:00\u202fPM\u2009\u2013\u20091:00\u202fAM", "Sunday: 4:00\u2009\u2013\u200911:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Québérac Deli Bar</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>(514) 634-4264</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2912 Rue Remembrance, Lachine, QC H8S 4H4, Canada</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Lachine</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jumbo Restaurant</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>(514) 631-9327</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2255 54e Avenue, Lachine, QC H8T 3A8, Canada</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Lachine</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>["Monday: 6:30\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 6:30\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 6:30\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 6:30\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 6:30\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Restaurant Kim</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>(514) 439-5350</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>7624 Rue Centrale, LaSalle, QC H8P 1K9, Canada</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>LaSalle</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Saturday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Foodie Food In</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>(438) 464-2042</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Rue Provost, Montréal, QC H8S 1R4, Canada</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Go meal</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>(514) 963-6540</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>543 90e Avenue, LaSalle, QC H8R 2Z9, Canada</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>LaSalle</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>["Monday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Tuesday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Wednesday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Thursday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Friday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Saturday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Sunday: 10:00\u202fAM\u2009\u2013\u20096:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Misoya</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>(514) 223-8406</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>406 Av. Lafleur, LaSalle, QC H8R 3H5, Canada</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>LaSalle</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 11:00\u202fAM\u2009\u2013\u20092:30\u202fPM, 4:30\u2009\u2013\u20099:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u20092:30\u202fPM, 4:30\u2009\u2013\u20099:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20092:30\u202fPM, 4:30\u2009\u2013\u20099:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u20092:30\u202fPM, 4:30\u2009\u2013\u20099:00\u202fPM", "Saturday: 12:00\u2009\u2013\u20099:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Restaurant Canada Best</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>(514) 495-7664</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>997 Av. Ogilvy, Montréal, QC H3N 2T3, Canada</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>["Monday: 11:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Tuesday: 11:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u20091:00\u202fAM", "Friday: 11:00\u202fAM\u2009\u2013\u20091:00\u202fAM", "Saturday: 11:00\u202fAM\u2009\u2013\u200910:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Stoneworks Bistro</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>(204) 504-2214</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>360 Main St, Winnipeg, MB R3C 4T3, Canada</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Not interested too many callers.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>["Monday: 6:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Tuesday: 6:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Wednesday: 6:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Thursday: 6:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Friday: 6:30\u202fAM\u2009\u2013\u20095:30\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Buvette</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>120 Scott St Unit 2, Winnipeg, MB R3L 0K9, Canada</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 7:30\u202fAM\u2009\u2013\u20093:30\u202fPM", "Wednesday: 7:30\u202fAM\u2009\u2013\u20093:30\u202fPM", "Thursday: 7:30\u202fAM\u2009\u2013\u20093:30\u202fPM", "Friday: 7:30\u202fAM\u2009\u2013\u20093:30\u202fPM", "Saturday: 10:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Sunday: 10:00\u202fAM\u2009\u2013\u20092:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>The Nook</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>(204) 774-0818</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>43 Sherbrook St, Winnipeg, MB R3C 2B1, Canada</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Saturday: 7:00\u202fAM\u2009\u2013\u20096:00\u202fPM", "Sunday: 7:00\u202fAM\u2009\u2013\u20095:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Yafa Café</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>(204) 221-1636</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1785 Portage Ave, Winnipeg, MB R3J 0E8, Canada</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">manager arrives 5pm onwards
+</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>["Monday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM", "Tuesday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM", "Wednesday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM", "Thursday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM", "Friday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM", "Saturday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM", "Sunday: 11:00\u202fAM\u2009\u2013\u200911:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>VA Cafe</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>171 McDermot Ave, Winnipeg, MB R3B 0S1, Canada</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>["Monday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Tuesday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Wednesday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Thursday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Friday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Saturday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Sunday: 9:00\u202fAM\u2009\u2013\u20095:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Muse Cafe</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>(204) 588-7748</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>185 Carlton St #200, Winnipeg, MB R3C 3H7, Canada</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>no answer x3</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Wanabees Diner</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>(204) 772-6969</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>639 Broadway, Winnipeg, MB R3C 0X2, Canada</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>["Monday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Tuesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Wednesday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Thursday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Friday: 7:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Saturday: 7:00\u202fAM\u2009\u2013\u20091:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Cheers Restaurant</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>(204) 949-1946</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>390 Logan Ave, Winnipeg, MB R3A 0R1, Canada</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>callback in end of august</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Kendel's Diner</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>(204) 667-6021</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1157 McLeod Ave, Winnipeg, MB R2G 2L1, Canada</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>4:30pm</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM", "Saturday: 9:00\u202fAM\u2009\u2013\u20092:00\u202fPM", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Dawning Restaurant</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>(204) 897-9123</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3269 Portage Ave Unit F, Winnipeg, MB R3K 0W6, Canada</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20094:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20092:30\u202fPM", "Sunday: 8:00\u202fAM\u2009\u2013\u20093:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jolly Mug Restaurant</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>(204) 256-4269</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1077 St Mary's Rd, Winnipeg, MB R2M 3T2, Canada</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Seb callback</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20097:00\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Saturday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Sunday: 9:00\u202fAM\u2009\u2013\u20097:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2 BROKE GIRLS THE FRIENDLY DINER</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>(204) 944-1634</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>81 Garry St #16, Winnipeg, MB R3C 4J9, Canada</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>(204) 944-1634</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>["Monday: 8:00\u202fAM\u2009\u2013\u20096:30\u202fPM", "Tuesday: 8:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20096:30\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20096:30\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20095:00\u202fPM", "Saturday: Closed", "Sunday: Closed"]</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Beaurivage Bistro</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>(204) 691-6999</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>637 Corydon Ave, Winnipeg, MB R3M 0W3, Canada</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Not Interested just deleted current website</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Wednesday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Thursday: 8:00\u202fAM\u2009\u2013\u20098:00\u202fPM", "Friday: 9:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Saturday: 9:00\u202fAM\u2009\u2013\u20099:00\u202fPM", "Sunday: 9:00\u202fAM\u2009\u2013\u20092:30\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Spice Cove Bistro</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>(204) 589-8780</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1053 Main St, Winnipeg, MB R2W 3R2, Canada</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: Closed", "Wednesday: Closed", "Thursday: 8:00\u202fAM\u2009\u2013\u20097:30\u202fPM", "Friday: 8:00\u202fAM\u2009\u2013\u20097:30\u202fPM", "Saturday: 10:30\u202fAM\u2009\u2013\u20098:00\u202fPM", "Sunday: 10:30\u202fAM\u2009\u2013\u20098:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sugar Bistro Hot Pot</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>(204) 691-1168</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2188 McPhillips St Unit 9, Winnipeg, MB R2V 3C8, Canada</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>["Monday: Closed", "Tuesday: 4:30\u2009\u2013\u20099:00\u202fPM", "Wednesday: 4:30\u2009\u2013\u20099:00\u202fPM", "Thursday: 4:30\u2009\u2013\u20099:00\u202fPM", "Friday: 4:30\u2009\u2013\u20099:00\u202fPM", "Saturday: 4:30\u2009\u2013\u20099:00\u202fPM", "Sunday: 4:30\u2009\u2013\u20099:00\u202fPM"]</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Maglicious</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>(705) 741-3838</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>261 Charlotte St, Peterborough, ON K9J 2V3, Canada</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>["Monday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Tuesday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Wednesday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Thursday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Friday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Saturday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM", "Sunday: 11:00\u202fAM\u2009\u2013\u20092:00\u202fAM"]</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Habibiz Cafe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>(204) 306-4485</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1373 Portage Ave, Winnipeg, MB R3G 0V8, Canada</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Have website just updating right now</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>(204) 306-4485</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Monday: 11:00 AM – 1:00 AM | Tuesday: 11:00 AM – 1:00 AM | Wednesday: 11:00 AM – 1:00 AM | Thursday: 11:00 AM – 1:00 AM | Friday: 11:00 AM – 1:00 AM | Saturday: 11:00 AM – 1:00 AM | Sunday: 11:00 AM – 1:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Damecca Lounge</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>(204) 306-1130</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>305 Madison St, Winnipeg, MB R3J 1H9, Canada</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Callback Monday and ask for Steven</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>(204) 306-1130</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: 11:00 AM – 11:00 PM | Wednesday: 11:00 AM – 11:00 PM | Thursday: 11:00 AM – 11:00 PM | Friday: 11:00 AM – 12:00 AM | Saturday: 11:00 AM – 12:00 AM | Sunday: 11:00 AM – 10:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Yen's Kitchen + Bar</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>55 Sherbrook St, Winnipeg, MB R3C 2B3, Canada</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Monday: 3:00 – 11:00 PM | Tuesday: 3:00 – 11:00 PM | Wednesday: 3:00 – 11:00 PM | Thursday: 3:00 – 11:00 PM | Friday: 3:00 PM – 12:00 AM | Saturday: 3:00 PM – 12:00 AM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>C9 Grill &amp; Bar</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>callback</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>(204) 478-7277</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>645 Corydon Ave, Winnipeg, MB R3M 0W3, Canada</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>CallBack in August</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>(204) 478-7277</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: Closed | Wednesday: 12:00 PM – 12:00 AM | Thursday: 12:00 PM – 12:00 AM | Friday: 12:00 PM – 2:00 AM | Saturday: 12:00 PM – 2:00 AM | Sunday: 12:00 PM – 12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Banza Noodle &amp; Tea House</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>(204) 306-4188</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>102 Sherbrook St, Winnipeg, MB R3C 2B4, Canada</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Monday: 11:30 AM – 9:00 PM | Tuesday: 11:30 AM – 9:00 PM | Wednesday: 11:30 AM – 9:00 PM | Thursday: 11:30 AM – 9:00 PM | Friday: 11:30 AM – 9:00 PM | Saturday: 11:30 AM – 9:00 PM | Sunday: 11:30 AM – 9:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Cafeaze International - Coffees, Cookies &amp; More</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>(204) 774-3817</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Across the street from the University of Winnipeg, 480 Portage Ave, Winnipeg, MB R3C 0E9, Canada</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Monday: 8:00 AM – 4:00 PM | Tuesday: 8:00 AM – 4:00 PM | Wednesday: 8:00 AM – 4:00 PM | Thursday: 8:00 AM – 4:00 PM | Friday: 8:00 AM – 4:00 PM | Saturday: Closed | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Modern Coffee</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>191 Inkster Blvd, Winnipeg, MB R2W 0J7, Canada</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: 8:00 AM – 3:00 PM | Wednesday: 8:00 AM – 3:00 PM | Thursday: 8:00 AM – 3:00 PM | Friday: 8:00 AM – 3:00 PM | Saturday: 10:00 AM – 3:00 PM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Bar Italia</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>(204) 452-1929</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>737 Corydon Ave, Winnipeg, MB R3M 0W4, Canada</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Monday: 9:00 AM – 2:00 AM | Tuesday: 9:00 AM – 2:00 AM | Wednesday: 9:00 AM – 2:00 AM | Thursday: 9:00 AM – 2:00 AM | Friday: 9:00 AM – 2:00 AM | Saturday: 9:00 AM – 2:00 AM | Sunday: 9:00 AM – 2:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sonix Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>(204) 505-5669</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>423 McMillan Ave, Winnipeg, MB R3L 1Z3, Canada</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Sam at 7</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>(204) 505-5669</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Monday: 12:00 PM – 2:30 AM | Tuesday: 12:00 PM – 2:30 AM | Wednesday: 12:00 PM – 2:30 AM | Thursday: 12:00 PM – 2:30 AM | Friday: 12:00 PM – 2:30 AM | Saturday: 12:00 PM – 2:30 AM | Sunday: 4:00 PM – 2:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Winn City Pub</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>(204) 284-8000</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>635 Pembina Hwy, Winnipeg, MB R3M 2L4, Canada</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Monday: 9:00 AM – 2:00 AM | Tuesday: 9:00 AM – 2:00 AM | Wednesday: 9:00 AM – 2:00 AM | Thursday: 9:00 AM – 2:00 AM | Friday: 9:00 AM – 2:00 AM | Saturday: 9:00 AM – 2:00 AM | Sunday: 9:00 AM – 2:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tapp's Neighbourhood Pub</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>(204) 256-4315</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1105 St Mary's Rd #1, Winnipeg, MB R2M 3T6, Canada</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Monday: 9:00 AM – 2:00 AM | Tuesday: 9:00 AM – 2:00 AM | Wednesday: 9:00 AM – 2:00 AM | Thursday: 9:00 AM – 2:00 AM | Friday: 9:00 AM – 2:00 AM | Saturday: 9:00 AM – 2:00 AM | Sunday: 9:00 AM – 2:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Public Domain</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>633 Portage Ave, Winnipeg, MB R3B 2G4, Canada</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: 12:00 PM – 1:30 AM | Wednesday: 12:00 PM – 1:30 AM | Thursday: 12:00 PM – 1:30 AM | Friday: 12:00 PM – 1:30 AM | Saturday: 4:00 PM – 1:30 AM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Spike's Grill</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>(204) 691-1696</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>202 Bond St, Winnipeg, MB R2C 2L1, Canada</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Monday: 8:00 AM – 2:00 PM | Tuesday: 8:00 AM – 2:00 PM | Wednesday: 8:00 AM – 2:00 PM | Thursday: 8:00 AM – 2:00 PM | Friday: 8:00 AM – 2:00 PM | Saturday: 8:00 AM – 2:00 PM | Sunday: 9:00 AM – 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tring5 Osborne</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>(204) 284-4086</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>100 Osborne St #107, Winnipeg, MB R3L 1Y5, Canada</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: 11:30 AM – 8:00 PM | Wednesday: 11:30 AM – 8:00 PM | Thursday: 11:30 AM – 8:00 PM | Friday: 11:30 AM – 9:00 PM | Saturday: 11:30 AM – 9:00 PM | Sunday: 11:30 AM – 7:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sips &amp; Nibbles Cafe</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>(204) 284-6304</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>5 Donald St #103, Winnipeg, MB R3L 2T4, Canada</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Monday: 8:00 AM – 3:00 PM | Tuesday: 8:00 AM – 3:00 PM | Wednesday: 8:00 AM – 3:00 PM | Thursday: 8:00 AM – 3:00 PM | Friday: 8:00 AM – 3:00 PM | Saturday: Closed | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Osborne Village Cafe</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>dont_call</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>(204) 452-9888</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>160 Osborne St, Winnipeg, MB R3L 1Y6, Canada</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>DNE</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>(204) 452-9888</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Garwood Grill</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>(204) 453-3012</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>435 Pembina Hwy, Winnipeg, MB R3M 2K9, Canada</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Monday: 9:00 AM – 9:00 PM | Tuesday: Closed | Wednesday: 9:00 AM – 9:00 PM | Thursday: 9:00 AM – 9:00 PM | Friday: 9:00 AM – 4:00 PM | Saturday: 9:00 AM – 4:00 PM | Sunday: 9:00 AM – 4:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Luda's Deli</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>(204) 589-2583</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>410 Aberdeen Ave, Winnipeg, MB R2W 1V5, Canada</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Monday: 8:00 AM – 1:30 PM | Tuesday: 8:00 AM – 1:30 PM | Wednesday: 8:00 AM – 1:30 PM | Thursday: 8:00 AM – 1:30 PM | Friday: 8:00 AM – 1:30 PM | Saturday: 8:00 AM – 1:30 PM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Little Saigon Restaurant</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>(204) 691-3999</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>333 William Ave, Winnipeg, MB R3A 0H8, Canada</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Monday: 11:00 AM – 9:00 PM | Tuesday: Closed | Wednesday: 11:00 AM – 9:00 PM | Thursday: 11:00 AM – 9:00 PM | Friday: 11:00 AM – 9:00 PM | Saturday: 11:00 AM – 9:00 PM | Sunday: 11:00 AM – 9:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Saigon Grind</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>(204) 816-0057</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>333 William Ave, Winnipeg, MB R3A 0H8, Canada</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Monday: 9:30 AM – 5:00 PM | Tuesday: Closed | Wednesday: 9:30 AM – 8:00 PM | Thursday: 9:30 AM – 8:30 PM | Friday: 9:30 AM – 8:30 PM | Saturday: 11:00 AM – 8:30 PM | Sunday: 11:00 AM – 8:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>The Coffee ONE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>(204) 894-3479</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>540 Academy Rd, Winnipeg, MB R3N 0E1, Canada</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>can do it for free</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>(204) 894-3479</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: 10:00 AM – 6:00 PM | Wednesday: 10:00 AM – 6:00 PM | Thursday: 10:00 AM – 6:00 PM | Friday: 10:00 AM – 6:00 PM | Saturday: 10:00 AM – 6:00 PM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>The Edge Tap &amp; Grill</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>(204) 231-1463</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>531 St Mary's Rd, Winnipeg, MB R2M 3L3, Canada</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>press 1 for ...</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>(204) 231-1463</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Monday: 11:30 AM – 12:00 AM | Tuesday: 11:30 AM – 12:00 AM | Wednesday: 11:30 AM – 2:00 AM | Thursday: 11:30 AM – 2:00 AM | Friday: 11:30 AM – 2:00 AM | Saturday: 11:30 AM – 2:00 AM | Sunday: 12:00 PM – 12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>KANTO Bar &amp; Lounge</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>(204) 415-5899</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>44 McPhillips St, Winnipeg, MB R3E 2J6, Canada</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Monday: 9:00 PM – 12:00 AM | Tuesday: 9:00 PM – 12:00 AM | Wednesday: 9:00 PM – 12:00 AM | Thursday: 9:00 PM – 12:00 AM | Friday: 9:00 PM – 1:00 AM | Saturday: 9:00 PM – 2:00 AM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hambo's Restaurant</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>(204) 697-8144</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1465 Notre Dame Ave, Winnipeg, MB R3E 0P8, Canada</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Monday: 9:00 AM – 5:00 PM | Tuesday: 9:00 AM – 5:00 PM | Wednesday: 9:00 AM – 5:00 PM | Thursday: 9:00 AM – 5:00 PM | Friday: 9:00 AM – 5:00 PM | Saturday: 9:00 AM – 5:00 PM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Birks Coffee</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>276 Portage Ave, Winnipeg, MB R3C 0B6, Canada</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: 8:00 AM – 4:00 PM | Wednesday: 10:00 AM – 5:00 PM | Thursday: 10:00 AM – 5:00 PM | Friday: 8:00 AM – 4:00 PM | Saturday: 8:00 AM – 4:00 PM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Dynasty Cafe 港味</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>(204) 558-1186</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>180 King St, Winnipeg, MB R3B 3G8, Canada</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Monday: 11:00 AM – 5:30 PM | Tuesday: Closed | Wednesday: 11:00 AM – 5:30 PM | Thursday: 11:00 AM – 5:30 PM | Friday: 11:00 AM – 5:30 PM | Saturday: 11:00 AM – 5:30 PM | Sunday: 11:00 AM – 3:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Club 200</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>(204) 943-6045</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>190 Garry St, Winnipeg, MB R3C 1G6, Canada</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Monday: 4:00 PM – 12:00 AM | Tuesday: 4:00 PM – 12:00 AM | Wednesday: 4:00 PM – 12:00 AM | Thursday: 4:00 PM – 2:00 AM | Friday: 4:00 PM – 2:00 AM | Saturday: 4:00 PM – 2:00 AM | Sunday: 4:00 PM – 12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Garrick Hotel Bar</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>(204) 944-0873</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>287 Garry St, Winnipeg, MB R3C 1H9, Canada</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Monday: 10:00 AM – 8:00 PM | Tuesday: 10:00 AM – 9:00 PM | Wednesday: 10:00 AM – 9:00 PM | Thursday: 10:00 AM – 9:00 PM | Friday: 10:00 AM – 10:00 PM | Saturday: 10:00 AM – 10:00 PM | Sunday: 12:00 – 5:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Bleachers Sports Bar</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>(204) 942-4010</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>308 Fort St, Winnipeg, MB R3C 1E5, Canada</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>no answer</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>(204) 942-4010</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Monday: 11:00 AM – 9:00 PM | Tuesday: 11:00 AM – 10:00 PM | Wednesday: 11:00 AM – 10:00 PM | Thursday: 11:00 AM – 10:00 PM | Friday: 12:00 – 10:00 PM | Saturday: 12:00 – 9:00 PM | Sunday: 12:00 – 9:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Cowboys</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>(204) 253-2641</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1034 Elizabeth Road just off Lagimodière Boulevard Winnipeg, MB R2J 1B3, Canada</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>(204) 253-2641</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Monday: Closed | Tuesday: Closed | Wednesday: Closed | Thursday: Closed | Friday: 9:00 PM – 2:00 AM | Saturday: 9:00 PM – 2:00 AM | Sunday: Closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>VJ's Drive Inn</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>(204) 943-2655</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>170 Main St, Winnipeg, MB R3C 3P1, Canada</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>no answer</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>(204) 943-2655</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Monday: 10:00 AM – 9:30 PM | Tuesday: 10:00 AM – 9:30 PM | Wednesday: 10:00 AM – 9:30 PM | Thursday: 10:00 AM – 9:30 PM | Friday: 10:00 AM – 9:30 PM | Saturday: 10:00 AM – 9:30 PM | Sunday: 10:00 AM – 9:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BISIKITCHEN &amp; HADIORS RESTAURANT</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>(204) 881-8033</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>720 Corydon Ave, Winnipeg, MB R3M 0X9, Canada</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>call at 6h42</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>(204) 881-8033</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Monday: 11:00 AM – 12:00 AM | Tuesday: 11:00 AM – 12:00 AM | Wednesday: 11:00 AM – 12:00 AM | Thursday: 11:00 AM – 12:00 AM | Friday: 11:00 AM – 12:00 AM | Saturday: 11:00 AM – 12:00 AM | Sunday: 11:00 AM – 12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Saffron's Restaurant</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>(204) 284-2602</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>681 Corydon Ave, Winnipeg, MB R3M 0W4, Canada</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Not interested right now</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>(204) 284-2602</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Monday: 12:00 – 11:00 PM | Tuesday: 12:00 – 11:00 PM | Wednesday: 12:00 – 11:00 PM | Thursday: 12:00 – 11:00 PM | Friday: 12:00 PM – 1:00 AM | Saturday: 1:00 PM – 1:00 AM | Sunday: 1:00 – 10:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Trattoria</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>643 Corydon Ave, Winnipeg, MB R3M 0W3, Canada</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Teo's</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>691 Corydon Ave, Winnipeg, MB R3M 0W4, Canada</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Sushi Ya</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>(204) 452-3916</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>659 Corydon Ave, Winnipeg, MB R3M 0W3, Canada</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Monday: 11:30 AM – 9:00 PM | Tuesday: Closed | Wednesday: 11:30 AM – 9:00 PM | Thursday: 11:30 AM – 9:00 PM | Friday: 11:30 AM – 9:30 PM | Saturday: 11:30 AM – 9:30 PM | Sunday: 11:30 AM – 9:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Karibu K Cafe &amp; Hookah Lounge</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>(204) 880-1553</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>691 Corydon Ave, Winnipeg, MB R3M 0W4, Canada</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Monday: 10:00 PM – 2:00 AM | Tuesday: 10:00 PM – 2:00 AM | Wednesday: 10:00 PM – 2:00 AM | Thursday: 10:00 PM – 2:00 AM | Friday: 10:00 PM – 2:00 AM | Saturday: 10:00 PM – 2:00 AM | Sunday: 10:00 PM – 2:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Red Fox cafe'</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>tocall</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>709 Corydon Ave, Winnipeg, MB R3M 0W4, Canada</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
